--- a/AD010_内部定義/BB040_プログラム構成/BB040010_クラス構成.xlsx
+++ b/AD010_内部定義/BB040_プログラム構成/BB040010_クラス構成.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AD010_内部定義\BB040_プログラム構成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2318AD-0E20-4E8E-99D1-D71C5A3A0F7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A65F436-2E87-4969-A349-0B799D952252}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7770" yWindow="1970" windowWidth="24080" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス構成図" sheetId="1" r:id="rId1"/>
@@ -87,13 +87,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>216643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>127743</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -149,15 +149,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -172,7 +172,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2444750" y="273050"/>
+          <a:off x="2438400" y="1593850"/>
           <a:ext cx="1136650" cy="368300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -211,16 +211,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -235,12 +235,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2444750" y="1498600"/>
-          <a:ext cx="1136650" cy="368300"/>
+          <a:off x="3022600" y="977900"/>
+          <a:ext cx="679450" cy="311150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -259,12 +262,19 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>モデル</a:t>
           </a:r>
         </a:p>
@@ -274,15 +284,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>216643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>127743</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -337,15 +347,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>212725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>390122</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>131661</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -403,14 +413,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>172193</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>172193</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -427,9 +437,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1714500" y="914400"/>
-          <a:ext cx="730250" cy="629393"/>
+        <a:xfrm>
+          <a:off x="1714500" y="1772393"/>
+          <a:ext cx="723900" cy="5607"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -460,35 +470,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>172193</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB005A43-85F3-4224-9DDA-4E220CE412B6}"/>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF20917D-1033-478F-9E4F-C83F1273F279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="4" idx="1"/>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1714500" y="1543793"/>
-          <a:ext cx="730250" cy="596157"/>
+        <a:xfrm flipV="1">
+          <a:off x="3575050" y="1772393"/>
+          <a:ext cx="609600" cy="5607"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -519,193 +529,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>172193</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{769165B6-B1A6-4308-881D-3FCBB43F5BEF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="3"/>
-          <a:endCxn id="5" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3581400" y="1543793"/>
-          <a:ext cx="603250" cy="596157"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>172193</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF20917D-1033-478F-9E4F-C83F1273F279}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="3"/>
-          <a:endCxn id="5" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3581400" y="914400"/>
-          <a:ext cx="603250" cy="629393"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F4626C6-1A53-47ED-9001-2FD66A9B055E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="2"/>
-          <a:endCxn id="4" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3013075" y="641350"/>
-          <a:ext cx="0" cy="857250"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>492125</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>216643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>172193</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -761,15 +593,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:colOff>365125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -787,7 +619,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3013075" y="273050"/>
+          <a:off x="3006725" y="1593850"/>
           <a:ext cx="568325" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
@@ -823,39 +655,39 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>130175</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>216643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>172193</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="コネクタ: カギ線 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E749851B-2C2F-47B2-9ADC-C5C6F87ADD2D}"/>
+        <xdr:cNvPr id="33" name="コネクタ: カギ線 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7B1DA6-87B2-4297-893E-78D9DE63431D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="3"/>
-          <a:endCxn id="4" idx="2"/>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="5" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3013075" y="2368550"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5413375" y="1588243"/>
           <a:ext cx="568325" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -40223"/>
+            <a:gd name="adj1" fmla="val -29050"/>
             <a:gd name="adj2" fmla="val 224138"/>
           </a:avLst>
         </a:prstGeom>
@@ -886,69 +718,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>130175</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>172193</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>127743</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="コネクタ: カギ線 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7B1DA6-87B2-4297-893E-78D9DE63431D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="3"/>
-          <a:endCxn id="5" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4752975" y="1772393"/>
-          <a:ext cx="568325" cy="184150"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -40223"/>
-            <a:gd name="adj2" fmla="val 224138"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:headEnd type="none"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -957,7 +726,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1021,9 +790,9 @@
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1081,15 +850,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1263,7 +1032,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
@@ -1321,15 +1090,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1352,7 +1121,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFC000"/>
+          <a:schemeClr val="accent2"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -1375,12 +1144,12 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
             <a:t>DTO</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1388,15 +1157,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>172193</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>172193</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1443,6 +1212,152 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31D40082-9DA1-4A0F-BE7C-3E594125BFF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000500" y="1371600"/>
+          <a:ext cx="615950" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>モデル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A3C4781-0C4A-433A-8642-A702C2F44C4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5473700" y="971550"/>
+          <a:ext cx="615950" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>モデル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
